--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,102 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïòóàñàêóåòû ðñïêóé üóï\néòðúóàîéå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ewww! What an eye-watering\nstink cloud!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now don\'t you all look at me\nlike that. Gosh, it\'s not nice to stare!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By golly, I tell you it has nothing\nto do with me, no sirree!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фууу! Какое зловонное облако,\nот него слезятся глаза!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только не смотрите на меня так.\nТаращиться нехорошо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ей-богу, я здесь совершенно не\nпричём, вовсе нет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Õôôô! Ëàëïå èìïâïîîïå ïáìàëï,\nïó îåãï òìåèÿóòÿ ãìàèà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï îå òíïóñéóå îà íåîÿ óàë.\nÓàñàþéóûòÿ îåöïñïšï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åê-áïãô, ÿ èäåòû òïâåñšåîîï îå\nðñéœæí, âïâòå îåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yup yup! I\'m glad I\'m out from\nunder that cloud of suspicion. No one\'s giving\nme the stink eye anymore!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0611.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да-да! Я рад, что на меня\nбольше не смотрят, словно это я тут порчу\nвоздух!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà-äà! Ÿ ñàä, œóï îà íåîÿ\náïìûšå îå òíïóñÿó, òìïâîï üóï ÿ óôó ðïñœô\nâïèäôö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s something mighty\npuzzling…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P06A/um0701.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yup yup. I can\'t help thinking\nthat our larder is going down much faster than\nit should be…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кое-что меня озадачивает...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да-да. Я не понимаю, почему\nзапасы нашей кладовки истощаются с такой\nскоростью...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïå-œóï íåîÿ ïèàäàœéâàåó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà-äà. Ÿ îå ðïîéíàý, ðïœåíô\nèàðàòú îàšåê ëìàäïâëé éòóïþàýóòÿ ò óàëïê\nòëïñïòóûý...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to go on that expedition\nwith your team, [hero]. Yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get it done!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0706.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу пойти в экспедицию вместе\nс твоей командой, [hero]. Да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы добьемся этого!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô ðïêóé â üëòðåäéøéý âíåòóå\nò óâïåê ëïíàîäïê, [hero]. Äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïáûåíòÿ üóïãï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oooh...[K] It\'s my first expedition!\nI don\'t have a clue what items I should take.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0806.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ооох...[K] Это моя первая экспедиция!\nЯ понятия не имею, что мне нужно с собой\nвзять.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïö...[K] Üóï íïÿ ðåñâàÿ üëòðåäéøéÿ!\nŸ ðïîÿóéÿ îå éíåý, œóï íîå îôçîï ò òïáïê\nâèÿóû.</t>
   </si>
 </sst>
 </file>
@@ -166,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,11 +303,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -232,6 +339,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,17 +801,162 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
         <v>822</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>790</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>794</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>797</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="8">
+        <v>771</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4">
+        <v>749</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
+        <v>752</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4">
+        <v>719</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
+        <v>722</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4">
+        <v>700</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -232,6 +232,72 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïïïö...[K] Üóï íïÿ ðåñâàÿ üëòðåäéøéÿ!\nŸ ðïîÿóéÿ îå éíåý, œóï íîå îôçîï ò òïáïê\nâèÿóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll get it done next time!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D06P11A/um0802.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В следующий раз у нас всё\nполучится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òìåäôýþéê ñàè ô îàò âòæ\nðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All we gotta do now is cross\nover this here mountain. Then we\'ll be at base\ncamp! Yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s do it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D07P11A/um0802.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё что нам нужно, это пересечь\nгору. И мы окажемся в лагере! Да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сделаем это!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ œóï îàí îôçîï, üóï ðåñåòåœû\nãïñô. É íú ïëàçåíòÿ â ìàãåñå! Äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òäåìàåí üóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We just have to cross this here\nmountain! That\'s all! Then we\'ll be at the base\ncamp, yup yup!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D07P11A/um0803.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам всего лишь нужно пересечь\nэту гору! И всё! Мы окажемся в лагере!\nДа-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí âòåãï ìéšû îôçîï ðåñåòåœû\nüóô ãïñô! É âòæ! Íú ïëàçåíòÿ â ìàãåñå!\nÄà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oooh...[K] The great [CS:N]Dusknoir[CR] shook\nmy hand! By gosh and by golly…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s like...[K] Like a dream...[K] Wow…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оооо...[K] Великий [CS:N]Даскнуар[CR] пожал\nмне лапу! Вот это да, ей богу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я словно...[K] Во сне...[K] Вау...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïï...[K] Âåìéëéê [CS:N]Äàòëîôàñ[CR] ðïçàì\níîå ìàðô! Âïó üóï äà, åê áïãô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìïâîï...[K] Âï òîå...[K] Âàô...</t>
   </si>
 </sst>
 </file>
@@ -627,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,20 +1009,132 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="8">
         <v>700</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="8">
+        <v>681</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4">
+        <v>659</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>662</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="4">
+        <v>637</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>640</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4">
+        <v>612</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>616</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -298,6 +298,96 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ òìïâîï...[K] Âï òîå...[K] Âàô...</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The great [CS:N]Dusknoir[CR] gave me\npointers on exploring, by golly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s given me a shot of\nconfidence in myself, yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve got the spirit for a great\nday of training! It\'s called being positive,\nby gosh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Великий [CS:N]Даскнуар[CR] дал мне\nнаставление, ей богу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он помог мне поверить в себя,\nда-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У меня появился настрой на\nотличный день тренировок! Ей богу, вот\nэто позитивный подход к делу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåìéëéê [CS:N]Äàòëîôàñ[CR] äàì íîå\nîàòóàâìåîéå, åê áïãô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî ðïíïã íîå ðïâåñéóû â òåáÿ,\näà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô íåîÿ ðïÿâéìòÿ îàòóñïê îà\nïóìéœîúê äåîû óñåîéñïâïë! Åê áïãô, âïó\nüóï ðïèéóéâîúê ðïäöïä ë äåìô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1209.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have to get a move on and\npack... Huff-huff…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне нужно поскорее собрать вещи...\nУхх-ухх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå îôçîï ðïòëïñåå òïáñàóû âåþé...\nÔöö-ôöö…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Um...[K] Have you all happened to\nsee [CS:N]Dugtrio[CR] anywhere?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/um1302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эм...[K] Вы, случаем, не видели [CS:N]Дагтрио[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üí...[K] Âú, òìôœàåí, îå âéäåìé [CS:N]Äàãóñéï[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1510.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll get out there again as soon\nas I get geared up, yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Off to [CS:P]Crystal Crossing[CR]!\nYup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я отправлюсь туда сразу же как\nподготовлюсь, да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прямиком в [CS:P]Кристальный Переход[CR]!\nДа-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïóðñàâìýòû óôäà òñàèô çå ëàë\nðïäãïóïâìýòû, äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñÿíéëïí â [CS:P]Ëñéòóàìûîúê Ðåñåöïä[CR]!\nÄà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve been spreading that rumor\nthe best I could, yup yup!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1605.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всеми силами распространяю слухи, да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòåíé òéìàíé ñàòðñïòóñàîÿý òìôöé, äà-äà!</t>
   </si>
 </sst>
 </file>
@@ -693,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,17 +1214,150 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6">
         <v>616</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="4">
+        <v>587</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4">
+        <v>590</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6">
+        <v>593</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="8">
+        <v>568</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="8">
+        <v>549</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="4">
+        <v>527</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6">
+        <v>530</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="4">
+        <v>508</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -388,6 +388,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ âòåíé òéìàíé ñàòðñïòóñàîÿý òìôöé, äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve been telling everyone the\ntruth, by golly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Folks find it a hard tale to\nswallow. But I\'m winning them over with my\nhonesty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m surely getting through to\nfolks, yup yup!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ей-богу, я всем рассказываю\nправду!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Народу трудно в неё поверить.\nНо я убеждаю их своей прямотой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я достучусь до каждого, да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åê-áïãô, ÿ âòåí ñàòòëàèúâàý\nðñàâäô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàñïäô óñôäîï â îåæ ðïâåñéóû.\nÎï ÿ ôáåçäàý éö òâïåê ðñÿíïóïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äïòóôœôòû äï ëàçäïãï, äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m getting kitted out to prepare\nto go to [CS:P]Brine Cave[CR]... Huff-huff…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2207.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я снаряжаюсь, чтобы подготовиться\nк походу в [CS:P]Пещеру у Моря[CR]... Ух-ух...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òîàñÿçàýòû, œóïáú ðïäãïóïâéóûòÿ\në ðïöïäô â [CS:P]Ðåþåñô ô Íïñÿ[CR]... Ôö-ôö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Golly, this surely isn\'t easy.[K]\nBut I\'m not giving up, no sirree!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D25P11A/um2303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ей-богу, это совсем непросто.[K]\nНо я не сдамся, нет, сэррр!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åê-áïãô, üóï òïâòåí îåðñïòóï.[K]\nÎï ÿ îå òäàíòÿ, îåó, òüñññ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D25P11A/um2306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oof...[K] I can\'t do anything for\nyou all but give encouragement. It frustrates\nme something awful!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]you all get it done now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You all don\'t fail us now! Stop\nour planet from becoming paralyzed! You hear?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ууф...[K] Я ничего не могу для вас\nсделать, только поддержать. Это меня дико\nрасстраивает!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Вы справитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не подведите нас! Остановите\nпланетарный паралич! Слышите?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôôõ...[K] Ÿ îéœåãï îå íïãô äìÿ âàò\nòäåìàóû, óïìûëï ðïääåñçàóû. Üóï íåîÿ äéëï\nñàòòóñàéâàåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Âú òðñàâéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ðïäâåäéóå îàò! Ïòóàîïâéóå\nðìàîåóàñîúê ðàñàìéœ! Òìúšéóå?</t>
   </si>
 </sst>
 </file>
@@ -783,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,20 +1431,154 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="8">
         <v>508</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="9" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="4">
+        <v>483</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>486</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6">
+        <v>489</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="8">
+        <v>464</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="4">
+        <v>445</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="4">
+        <v>420</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>423</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>426</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="201">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -475,6 +475,153 @@
   </si>
   <si>
     <t xml:space="preserve"> Îå ðïäâåäéóå îàò! Ïòóàîïâéóå\nðìàîåóàñîúê ðàñàìéœ! Òìúšéóå?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?[K] The grand master of all\nthings bad?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oof...[K] You know I haven\'t been\nat the guild much longer than you all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I couldn\'t tell you all about that\ngraduation exam if I wanted to, I swear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sorry…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Гранд мастер всего самого\nплохого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ууф...[K] Вы же знаете, я не так\nдавно живу в гильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Клянусь, я не смогу вам ничего\nрассказать, даже если сам захочу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Простите...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Ãñàîä íàòóåñ âòåãï òàíïãï\nðìïöïãï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôôõ...[K] Âú çå èîàåóå, ÿ îå óàë\näàâîï çéâô â ãéìûäéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëìÿîôòû, ÿ îå òíïãô âàí îéœåãï\nñàòòëàèàóû, äàçå åòìé òàí èàöïœô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóéóå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oof...[K] I wouldn\'t know anything\nabout that at all…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ууф...[K] Я совсем ничего об этом не\nзнал...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôôõ...[K] Ÿ òïâòåí îéœåãï ïá üóïí îå\nèîàì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning to you all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Even after you graduate from\nthe guild, you can surely keep up with your\nexploring, yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Huh?[K] You all are asking me\nwhere you ought to go exploring?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P02A/us0108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oof...[K] Well, I wouldn\'t know how\nto answer that for you all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K]you\'d all have to agree with\nme that there are still plenty of mysteries in\nthis here world of ours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sure that you all will want\nto probe and explore places like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So keep checking the guild\'s\ntwo boards for jobs just like always.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After you do more jobs, I bet\nsomething new will brew on the horizon.[K]\nYup yup, I just can\'t shake that feeling!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As for me, I need to work on\ngraduating from the guild myself, yes I do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here\'s to another good day of\nexploring, yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Даже после выпуска из гильдии,\nвы всё ещё можете ходить на вылазки,\nда-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Что?[K] Вы спрашиваете меня,\nкуда вам стоит пойти?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ууф...[K] Ну, мне трудно ответить\nна это.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Должен подметить, что в\nнашем мире есть ещё множество\nнеразгаданных тайн.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уверен, что вам стоит попробовать\nисследовать какое-нибудь загадочное место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, как обычно, вы можете\nпосмотреть на Доски Объявлений и узнать,\nкакие задания там есть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выполните побольше заданий и я\nуверен, что-нибудь да произойдёт.[K] Да-да,\nя уверен, что-то случится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну а я буду трудиться, чтобы\nтоже выпуститься из гильдии, да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пора поисследовать, да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï âàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàçå ðïòìå âúðôòëà éè ãéìûäéé,\nâú âòæ åþæ íïçåóå öïäéóû îà âúìàèëé,\näà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Œóï?[K] Âú òðñàšéâàåóå íåîÿ,\nëôäà âàí òóïéó ðïêóé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôôõ...[K] Îô, íîå óñôäîï ïóâåóéóû\nîà üóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Äïìçåî ðïäíåóéóû, œóï â\nîàšåí íéñå åòóû åþæ íîïçåòóâï\nîåñàèãàäàîîúö óàêî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôâåñåî, œóï âàí òóïéó ðïðñïáïâàóû\néòòìåäïâàóû ëàëïå-îéáôäû èàãàäïœîïå íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ëàë ïáúœîï, âú íïçåóå\nðïòíïóñåóû îà Äïòëé Ïáùÿâìåîéê é ôèîàóû,\nëàëéå èàäàîéÿ óàí åòóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúðïìîéóå ðïáïìûšå èàäàîéê é ÿ\nôâåñåî, œóï-îéáôäû äà ðñïéèïêäæó.[K] Äà-äà,\nÿ ôâåñåî, œóï-óï òìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô à ÿ áôäô óñôäéóûòÿ, œóïáú\nóïçå âúðôòóéóûòÿ éè ãéìûäéé, äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñà ðïéòòìåäïâàóû, äà-äà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us3101.ssb</t>
   </si>
 </sst>
 </file>
@@ -561,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -588,6 +735,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -870,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1706,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="B43" s="4">
         <v>423</v>
       </c>
@@ -1568,17 +1724,238 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6">
         <v>426</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="7" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="4">
+        <v>391</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>395</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>398</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="10">
+        <v>401</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6">
+        <v>372</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="4">
+        <v>326</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="4">
+        <v>329</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>332</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>335</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>338</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>341</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>344</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>347</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>350</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>353</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="279">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -622,6 +622,240 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/us3101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня я буду трудиться, чтобы\nвыпуститься из гильдии, да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ ÿ áôäô óñôäéóûòÿ, œóïáú\nâúðôòóéóûòÿ éè ãéìûäéé, äà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?![K] You all got to meet that\nfamous explorer [CS:N]Scizor[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oof...[K] By golly, I envy you.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] Вы встретили известного\nисследователя [CS:N]Сизора[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ууф...[K] Ей-богу, я вам завидую.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Âú âòóñåóéìé éèâåòóîïãï\néòòìåäïâàóåìÿ [CS:N]Òéèïñà[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôôõ...[K] Åê-áïãô, ÿ âàí èàâéäôý.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That little kid was kinda cute…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этот малыш такой милый...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïó íàìúš óàëïê íéìúê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?![K] That little [CS:N]Manaphy[CR] has\ntaken ill?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] Малютка [CS:N]Манафи[CR] заболел?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Íàìýóëà [CS:N]Íàîàõé[CR] èàáïìåì?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheer up, you all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выше нос, друзья!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúšå îïò, äñôèûÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yup yup! Here\'s to another good\nday of exploring!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброго вам утра!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да-да! Сегодня прекрасный день,\nчтобы поисследовать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïãï âàí ôóñà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà-äà! Òåãïäîÿ ðñåëñàòîúê äåîû,\nœóïáú ðïéòòìåäïâàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oooh...[K] I get to explore with the\nlovely women of Team [CS:X]Charm[CR], by gosh…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the women of Team [CS:X]Charm[CR]\nnotice me...or praise me with a \"lookin\' good\"…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Or if they think I\'m cute or\nsomething...[K] By golly…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ооох...[K] Ей-богу, я буду\nисследовать вместе с чудесными девушками\nКоманды [CS:X]Шарм[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если девушки Команды [CS:X]Шарм[CR] заметят\nменя... Или скажут мне: \"Ты молодец\"...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Или если они посчитают меня\nмилым...[K] Ей-богу...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïïö...[K] Åê-áïãô, ÿ áôäô\néòòìåäïâàóû âíåòóå ò œôäåòîúíé äåâôšëàíé\nËïíàîäú [CS:X]Šàñí[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé äåâôšëé Ëïíàîäú [CS:X]Šàñí[CR] èàíåóÿó\níåîÿ... Éìé òëàçôó íîå: \"Óú íïìïäåø\"...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éìé åòìé ïîé ðïòœéóàýó íåîÿ\níéìúí...[K] Åê-áïãô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s something mysterious\nabout [CS:P]Aegis Cave[CR]. I\'m sure of it, yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But what exactly is mysterious\nabout it? Golly, I wouldn\'t know…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Пещера Эгиды[CR] скрывает какую-то\nтайну. Я уверен, да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но какую именно тайну? Ей-богу,\nя не знаю...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Ðåþåñà Üãéäú[CR] òëñúâàåó ëàëôý-óï\nóàêîô. Ÿ ôâåñåî, äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ëàëôý éíåîîï óàêîô? Åê-áïãô,\nÿ îå èîàý...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard you solved the mysteries\nof [CS:P]Aegis Cave[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s mighty great of you all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро, ребята!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я узнал, что вы разгадали загадки\n[CS:P]Пещеры Эгиды[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как здорово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï, ñåáÿóà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôèîàì, œóï âú ñàèãàäàìé èàãàäëé\n[CS:P]Ðåþåñú Üãéäú[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë èäïñïâï!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0405.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oof...[K] What\'s happening to that\nlittle [CS:N]Azurill[CR] is worrisome…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2004.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ууф...[K] Я так переживаю за малютку\n[CS:N]Азурилла[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôôõ...[K] Ÿ óàë ðåñåçéâàý èà íàìýóëô\n[CS:N]Àèôñéììà[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You all can go into the\ndream now?[K] That\'s mighty great news!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2008.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь вы сможете попасть в сон?[K]\nЭто отличная весть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû âú òíïçåóå ðïðàòóû â òïî?[K]\nÜóï ïóìéœîàÿ âåòóû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone\'s all checking into this\ndistortion of space thing, yup yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll be on my way as soon as I\nget ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все пытаются узнать про искажение\nпространства, да-да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тоже буду этим заниматься, но\nпосле того как я к этому подготовлюсь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ðúóàýóòÿ ôèîàóû ðñï éòëàçåîéå\nðñïòóñàîòóâà, äà-äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óïçå áôäô üóéí èàîéíàóûòÿ, îï\nðïòìå óïãï ëàë ÿ ë üóïíô ðïäãïóïâìýòû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m gonna be looking forward to\nyour team\'s safe return, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я буду ждать возвращения твоей\nгруппы, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áôäô çäàóû âïèâñàþåîéÿ óâïåê\nãñôððú, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning, you all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here\'s to another good day of\nexploring!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2209.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро, друзья!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня хороший день для\nисследования!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï, äñôèûÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ öïñïšéê äåîû äìÿ\néòòìåäïâàîéÿ!</t>
   </si>
 </sst>
 </file>
@@ -652,7 +886,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -704,11 +938,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -741,6 +984,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,17 +2194,409 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="4">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12">
         <v>353</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="13" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="4">
+        <v>301</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>304</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12">
+        <v>307</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="4">
+        <v>279</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="6">
+        <v>282</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="8">
+        <v>260</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="8">
+        <v>241</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="8">
+        <v>214</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>192</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6">
+        <v>195</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="4">
+        <v>167</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>170</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
+        <v>173</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>145</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6">
+        <v>148</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="4">
+        <v>120</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="4">
+        <v>123</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6">
+        <v>126</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="8">
+        <v>101</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" s="8">
+        <v>82</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="4">
+        <v>60</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6">
+        <v>63</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" s="8">
+        <v>41</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="4">
+        <v>18</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B84" s="4">
+        <v>21</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Бидуф.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="280">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -856,6 +856,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Òåãïäîÿ öïñïšéê äåîû äìÿ\néòòìåäïâàîéÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2305.ssb</t>
   </si>
 </sst>
 </file>
@@ -1274,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2585,7 +2588,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="B84" s="4">
         <v>21</v>
       </c>
